--- a/Коэффициент локализации.xlsx
+++ b/Коэффициент локализации.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t xml:space="preserve">Регион</t>
   </si>
@@ -68,16 +68,20 @@
   </si>
   <si>
     <t xml:space="preserve">года, отрасли, регионы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -193,7 +197,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,7 +238,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,10 +347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,10 +549,15 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="B13" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
@@ -563,23 +580,23 @@
       <c r="A15" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="11" t="n">
         <f aca="false">(B2/$G2)/(B$7/$B$10)</f>
         <v>1.20682436394229</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">(C2/$G2)/(C$7/$B$10)</f>
         <v>1.0236974740097</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="11" t="n">
         <f aca="false">(D2/$G2)/(D$7/$B$10)</f>
         <v>1.35214052183513</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="11" t="n">
         <f aca="false">(E2/$G2)/(E$7/$B$10)</f>
         <v>1.19479384556253</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="11" t="n">
         <f aca="false">(F2/$G2)/(F$7/$B$10)</f>
         <v>0.554936791883789</v>
       </c>
@@ -588,23 +605,23 @@
       <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="11" t="n">
         <f aca="false">(B3/$G3)/(B$7/$B$10)</f>
         <v>1.39701787539493</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="11" t="n">
         <f aca="false">(C3/$G3)/(C$7/$B$10)</f>
         <v>0.919351171985622</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="11" t="n">
         <f aca="false">(D3/$G3)/(D$7/$B$10)</f>
         <v>1.19234495451073</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="11" t="n">
         <f aca="false">(E3/$G3)/(E$7/$B$10)</f>
         <v>0.411814278012901</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="11" t="n">
         <f aca="false">(F3/$G3)/(F$7/$B$10)</f>
         <v>1.19319873343344</v>
       </c>
@@ -613,23 +630,23 @@
       <c r="A17" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="11" t="n">
         <f aca="false">(B4/$G4)/(B$7/$B$10)</f>
         <v>1.51683953531025</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="11" t="n">
         <f aca="false">(C4/$G4)/(C$7/$B$10)</f>
         <v>0.958155493958188</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="11" t="n">
         <f aca="false">(D4/$G4)/(D$7/$B$10)</f>
         <v>0.226822215942367</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="11" t="n">
         <f aca="false">(E4/$G4)/(E$7/$B$10)</f>
         <v>0.809516135692342</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="11" t="n">
         <f aca="false">(F4/$G4)/(F$7/$B$10)</f>
         <v>0.779251373172035</v>
       </c>
@@ -638,23 +655,23 @@
       <c r="A18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="11" t="n">
         <f aca="false">(B5/$G5)/(B$7/$B$10)</f>
         <v>0.607812161983907</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="11" t="n">
         <f aca="false">(C5/$G5)/(C$7/$B$10)</f>
         <v>0.410531552993767</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="11" t="n">
         <f aca="false">(D5/$G5)/(D$7/$B$10)</f>
         <v>0.602802721088435</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="11" t="n">
         <f aca="false">(E5/$G5)/(E$7/$B$10)</f>
         <v>6.22332691055565</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="11" t="n">
         <f aca="false">(F5/$G5)/(F$7/$B$10)</f>
         <v>0.330169969874742</v>
       </c>
@@ -663,23 +680,23 @@
       <c r="A19" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="11" t="n">
         <f aca="false">(B6/$G6)/(B$7/$B$10)</f>
         <v>0.821617168121799</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="11" t="n">
         <f aca="false">(C6/$G6)/(C$7/$B$10)</f>
         <v>1.06522027026203</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="11" t="n">
         <f aca="false">(D6/$G6)/(D$7/$B$10)</f>
         <v>0.930791019006013</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="11" t="n">
         <f aca="false">(E6/$G6)/(E$7/$B$10)</f>
         <v>0.368957075319056</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F19" s="11" t="n">
         <f aca="false">(F6/$G6)/(F$7/$B$10)</f>
         <v>1.34883430023543</v>
       </c>
@@ -689,7 +706,161 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>1.20682436394229</v>
+      </c>
+      <c r="C25" s="12" t="n">
+        <v>1.0236974740097</v>
+      </c>
+      <c r="D25" s="12" t="n">
+        <v>1.35214052183513</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">D25+C25+B25</f>
+        <v>3.58266235978711</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>1.19479384556253</v>
+      </c>
+      <c r="H25" s="12" t="n">
+        <v>0.554936791883789</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>1.39701787539493</v>
+      </c>
+      <c r="C26" s="12" t="n">
+        <v>0.919351171985622</v>
+      </c>
+      <c r="D26" s="12" t="n">
+        <v>1.19234495451073</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">D26+C26+B26</f>
+        <v>3.50871400189128</v>
+      </c>
+      <c r="G26" s="12" t="n">
+        <v>0.411814278012901</v>
+      </c>
+      <c r="H26" s="12" t="n">
+        <v>1.19319873343344</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>1.51683953531025</v>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>0.958155493958188</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <v>0.226822215942367</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">D27+C27+B27</f>
+        <v>2.70181724521081</v>
+      </c>
+      <c r="G27" s="12" t="n">
+        <v>0.809516135692342</v>
+      </c>
+      <c r="H27" s="12" t="n">
+        <v>0.779251373172035</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>0.607812161983907</v>
+      </c>
+      <c r="C28" s="12" t="n">
+        <v>0.410531552993767</v>
+      </c>
+      <c r="D28" s="12" t="n">
+        <v>0.602802721088435</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">D28+C28+B28</f>
+        <v>1.62114643606611</v>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>6.22332691055565</v>
+      </c>
+      <c r="H28" s="12" t="n">
+        <v>0.330169969874742</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>0.821617168121799</v>
+      </c>
+      <c r="C29" s="12" t="n">
+        <v>1.06522027026203</v>
+      </c>
+      <c r="D29" s="12" t="n">
+        <v>0.930791019006013</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">D29+C29+B29</f>
+        <v>2.81762845738984</v>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>0.368957075319056</v>
+      </c>
+      <c r="H29" s="12" t="n">
+        <v>1.34883430023543</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
